--- a/data/tracks1.xlsx
+++ b/data/tracks1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google\University\data analysis\ДЗ1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google\University\data analysis\work\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B41AAE-7210-4714-9C8A-E01B12CEA302}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077EC2E4-7167-445A-9C09-999F01305BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{D330D843-1082-44C3-89B4-2E52DF297FF6}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{D330D843-1082-44C3-89B4-2E52DF297FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="206">
   <si>
     <t>Name</t>
   </si>
@@ -594,9 +594,6 @@
     <t>The Wizard</t>
   </si>
   <si>
-    <t>AlbumID</t>
-  </si>
-  <si>
     <t>ArtistID</t>
   </si>
   <si>
@@ -637,6 +634,30 @@
   </si>
   <si>
     <t>Cidade Negra</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Прослушиваний</t>
+  </si>
+  <si>
+    <t>Альбом ID</t>
+  </si>
+  <si>
+    <t>Стоимость $</t>
+  </si>
+  <si>
+    <t>Артист ID</t>
+  </si>
+  <si>
+    <t>Имя исполнителя</t>
+  </si>
+  <si>
+    <t>Рейтинг</t>
+  </si>
+  <si>
+    <t>Жанр ID</t>
   </si>
 </sst>
 </file>
@@ -720,7 +741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -875,11 +896,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -944,6 +978,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1260,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114091D3-0074-4988-A357-883FBA4E4F47}">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:J158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1273,13 +1319,14 @@
     <col min="3" max="3" width="14.88671875" style="6" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="47" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" style="6" customWidth="1"/>
-    <col min="8" max="19" width="20.77734375" style="6" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="6"/>
+    <col min="6" max="6" width="23.109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" style="6" customWidth="1"/>
+    <col min="9" max="20" width="20.77734375" style="6" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1296,16 +1343,22 @@
         <v>9</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J1" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1322,16 +1375,24 @@
         <v>4</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>44</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6">
+        <f ca="1">ROUND(RAND()*10,2)</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1348,16 +1409,24 @@
         <v>4</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
+        <f ca="1">F2</f>
+        <v>44</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6">
+        <f ca="1">J2</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1374,16 +1443,24 @@
         <v>4</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
+        <f t="shared" ref="F4:F11" ca="1" si="0">F3</f>
+        <v>44</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" ref="J4:J11" ca="1" si="1">J3</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1400,16 +1477,24 @@
         <v>4</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1426,16 +1511,24 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1452,16 +1545,24 @@
         <v>4</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="s">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1478,16 +1579,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1504,16 +1613,24 @@
         <v>4</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3" t="s">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1530,16 +1647,24 @@
         <v>4</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="s">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1556,16 +1681,24 @@
         <v>4</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="s">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1582,16 +1715,24 @@
         <v>21</v>
       </c>
       <c r="F12" s="3">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>47</v>
+      </c>
+      <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="6">
+        <f ca="1">ROUND(RAND()*10,2)</f>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1608,16 +1749,24 @@
         <v>24</v>
       </c>
       <c r="F13" s="3">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>13</v>
+      </c>
+      <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="6">
+        <f ca="1">J12</f>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1634,16 +1783,24 @@
         <v>24</v>
       </c>
       <c r="F14" s="3">
+        <f ca="1">F13</f>
+        <v>13</v>
+      </c>
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" ref="J14:J15" ca="1" si="2">J13</f>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1660,16 +1817,24 @@
         <v>24</v>
       </c>
       <c r="F15" s="3">
+        <f ca="1">F14</f>
+        <v>13</v>
+      </c>
+      <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -1686,16 +1851,24 @@
         <v>27</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3" t="s">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>42</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="6">
+        <f ca="1">J2</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -1712,16 +1885,24 @@
         <v>27</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="s">
+        <f ca="1">F16</f>
+        <v>42</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" ref="J17:J23" ca="1" si="3">J3</f>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1738,16 +1919,24 @@
         <v>27</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="s">
+        <f t="shared" ref="F18:F23" ca="1" si="4">F17</f>
+        <v>42</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -1764,16 +1953,24 @@
         <v>27</v>
       </c>
       <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="s">
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
@@ -1790,16 +1987,24 @@
         <v>27</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3" t="s">
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1816,16 +2021,24 @@
         <v>27</v>
       </c>
       <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3" t="s">
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
@@ -1842,16 +2055,24 @@
         <v>27</v>
       </c>
       <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="s">
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
@@ -1868,16 +2089,24 @@
         <v>27</v>
       </c>
       <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3" t="s">
+        <f t="shared" ca="1" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
@@ -1894,16 +2123,24 @@
         <v>35</v>
       </c>
       <c r="F24" s="3">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>44</v>
+      </c>
+      <c r="G24" s="3">
         <v>3</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="6">
+        <f ca="1">ROUND(RAND()*10,2)</f>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>37</v>
       </c>
@@ -1920,16 +2157,24 @@
         <v>35</v>
       </c>
       <c r="F25" s="3">
+        <f ca="1">F24</f>
+        <v>44</v>
+      </c>
+      <c r="G25" s="3">
         <v>3</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="6">
+        <f ca="1">J24</f>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -1946,16 +2191,24 @@
         <v>35</v>
       </c>
       <c r="F26" s="3">
+        <f t="shared" ref="F26:F38" ca="1" si="5">F25</f>
+        <v>44</v>
+      </c>
+      <c r="G26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" ref="J26:J38" ca="1" si="6">J25</f>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
@@ -1972,16 +2225,24 @@
         <v>35</v>
       </c>
       <c r="F27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="G27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
@@ -1998,16 +2259,24 @@
         <v>35</v>
       </c>
       <c r="F28" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="G28" s="3">
         <v>3</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
@@ -2024,16 +2293,24 @@
         <v>35</v>
       </c>
       <c r="F29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="G29" s="3">
         <v>3</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>42</v>
       </c>
@@ -2050,16 +2327,24 @@
         <v>35</v>
       </c>
       <c r="F30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="G30" s="3">
         <v>3</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>43</v>
       </c>
@@ -2076,16 +2361,24 @@
         <v>35</v>
       </c>
       <c r="F31" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="G31" s="3">
         <v>3</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>44</v>
       </c>
@@ -2102,16 +2395,24 @@
         <v>35</v>
       </c>
       <c r="F32" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="G32" s="3">
         <v>3</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>45</v>
       </c>
@@ -2128,16 +2429,24 @@
         <v>35</v>
       </c>
       <c r="F33" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="G33" s="3">
         <v>3</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
@@ -2154,16 +2463,24 @@
         <v>35</v>
       </c>
       <c r="F34" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="G34" s="3">
         <v>3</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>47</v>
       </c>
@@ -2180,16 +2497,24 @@
         <v>35</v>
       </c>
       <c r="F35" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="G35" s="3">
         <v>3</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>48</v>
       </c>
@@ -2206,16 +2531,24 @@
         <v>35</v>
       </c>
       <c r="F36" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="G36" s="3">
         <v>3</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>49</v>
       </c>
@@ -2232,16 +2565,24 @@
         <v>35</v>
       </c>
       <c r="F37" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="G37" s="3">
         <v>3</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>50</v>
       </c>
@@ -2258,16 +2599,24 @@
         <v>35</v>
       </c>
       <c r="F38" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="G38" s="3">
         <v>3</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="H38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
@@ -2284,16 +2633,24 @@
         <v>52</v>
       </c>
       <c r="F39" s="3">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>24</v>
+      </c>
+      <c r="G39" s="3">
         <v>4</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="H39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="6">
+        <f ca="1">ROUND(RAND()*10,2)</f>
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>54</v>
       </c>
@@ -2310,16 +2667,24 @@
         <v>52</v>
       </c>
       <c r="F40" s="3">
+        <f ca="1">F39</f>
+        <v>24</v>
+      </c>
+      <c r="G40" s="3">
         <v>4</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="H40" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="6">
+        <f ca="1">J39</f>
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>55</v>
       </c>
@@ -2336,16 +2701,24 @@
         <v>52</v>
       </c>
       <c r="F41" s="3">
+        <f t="shared" ref="F41:F51" ca="1" si="7">F40</f>
+        <v>24</v>
+      </c>
+      <c r="G41" s="3">
         <v>4</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="6">
+        <f t="shared" ref="J41:J51" ca="1" si="8">J40</f>
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
@@ -2362,16 +2735,24 @@
         <v>52</v>
       </c>
       <c r="F42" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G42" s="3">
         <v>4</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>57</v>
       </c>
@@ -2388,16 +2769,24 @@
         <v>52</v>
       </c>
       <c r="F43" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G43" s="3">
         <v>4</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>58</v>
       </c>
@@ -2414,16 +2803,24 @@
         <v>52</v>
       </c>
       <c r="F44" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G44" s="3">
         <v>4</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>59</v>
       </c>
@@ -2440,16 +2837,24 @@
         <v>52</v>
       </c>
       <c r="F45" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G45" s="3">
         <v>4</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="H45" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>60</v>
       </c>
@@ -2466,16 +2871,24 @@
         <v>52</v>
       </c>
       <c r="F46" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G46" s="3">
         <v>4</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="H46" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>61</v>
       </c>
@@ -2492,16 +2905,24 @@
         <v>52</v>
       </c>
       <c r="F47" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G47" s="3">
         <v>4</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>62</v>
       </c>
@@ -2518,16 +2939,24 @@
         <v>52</v>
       </c>
       <c r="F48" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G48" s="3">
         <v>4</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>63</v>
       </c>
@@ -2544,16 +2973,24 @@
         <v>52</v>
       </c>
       <c r="F49" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G49" s="3">
         <v>4</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>64</v>
       </c>
@@ -2570,16 +3007,24 @@
         <v>52</v>
       </c>
       <c r="F50" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G50" s="3">
         <v>4</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>65</v>
       </c>
@@ -2596,16 +3041,24 @@
         <v>52</v>
       </c>
       <c r="F51" s="3">
+        <f t="shared" ca="1" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="G51" s="3">
         <v>4</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="6">
+        <f t="shared" ca="1" si="8"/>
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>66</v>
       </c>
@@ -2622,16 +3075,24 @@
         <v>67</v>
       </c>
       <c r="F52" s="3">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
         <v>5</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="6">
+        <f ca="1">ROUND(RAND()*10,2)</f>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>69</v>
       </c>
@@ -2648,16 +3109,24 @@
         <v>67</v>
       </c>
       <c r="F53" s="3">
+        <f ca="1">F52</f>
+        <v>4</v>
+      </c>
+      <c r="G53" s="3">
         <v>5</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="6">
+        <f ca="1">J52</f>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>70</v>
       </c>
@@ -2674,16 +3143,24 @@
         <v>67</v>
       </c>
       <c r="F54" s="3">
+        <f t="shared" ref="F54:F63" ca="1" si="9">F53</f>
+        <v>4</v>
+      </c>
+      <c r="G54" s="3">
         <v>5</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="6">
+        <f t="shared" ref="J54:J63" ca="1" si="10">J53</f>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>71</v>
       </c>
@@ -2700,16 +3177,24 @@
         <v>67</v>
       </c>
       <c r="F55" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="G55" s="3">
         <v>5</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>72</v>
       </c>
@@ -2726,16 +3211,24 @@
         <v>67</v>
       </c>
       <c r="F56" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="G56" s="3">
         <v>5</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="H56" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>73</v>
       </c>
@@ -2752,16 +3245,24 @@
         <v>67</v>
       </c>
       <c r="F57" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="G57" s="3">
         <v>5</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="H57" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>74</v>
       </c>
@@ -2778,16 +3279,24 @@
         <v>67</v>
       </c>
       <c r="F58" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
         <v>5</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>75</v>
       </c>
@@ -2804,16 +3313,24 @@
         <v>67</v>
       </c>
       <c r="F59" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
         <v>5</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>76</v>
       </c>
@@ -2830,16 +3347,24 @@
         <v>67</v>
       </c>
       <c r="F60" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="G60" s="3">
         <v>5</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="H60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>77</v>
       </c>
@@ -2856,16 +3381,24 @@
         <v>67</v>
       </c>
       <c r="F61" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="G61" s="3">
         <v>5</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>78</v>
       </c>
@@ -2882,16 +3415,24 @@
         <v>67</v>
       </c>
       <c r="F62" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
         <v>5</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>79</v>
       </c>
@@ -2908,16 +3449,24 @@
         <v>67</v>
       </c>
       <c r="F63" s="3">
+        <f t="shared" ca="1" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="G63" s="3">
         <v>5</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="H63" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="6">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>80</v>
       </c>
@@ -2934,16 +3483,24 @@
         <v>81</v>
       </c>
       <c r="F64" s="3">
-        <v>6</v>
-      </c>
-      <c r="G64" s="3" t="s">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>10</v>
+      </c>
+      <c r="G64" s="3">
+        <v>6</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="I64" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J64" s="6">
+        <f ca="1">ROUND(RAND()*10,2)</f>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>84</v>
       </c>
@@ -2960,16 +3517,24 @@
         <v>81</v>
       </c>
       <c r="F65" s="3">
-        <v>6</v>
-      </c>
-      <c r="G65" s="3" t="s">
+        <f ca="1">F64</f>
+        <v>10</v>
+      </c>
+      <c r="G65" s="3">
+        <v>6</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J65" s="6">
+        <f ca="1">J64</f>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>85</v>
       </c>
@@ -2986,16 +3551,24 @@
         <v>81</v>
       </c>
       <c r="F66" s="3">
-        <v>6</v>
-      </c>
-      <c r="G66" s="3" t="s">
+        <f t="shared" ref="F66:F76" ca="1" si="11">F65</f>
+        <v>10</v>
+      </c>
+      <c r="G66" s="3">
+        <v>6</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="I66" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J66" s="6">
+        <f t="shared" ref="J66:J77" ca="1" si="12">J65</f>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>86</v>
       </c>
@@ -3012,16 +3585,24 @@
         <v>81</v>
       </c>
       <c r="F67" s="3">
-        <v>6</v>
-      </c>
-      <c r="G67" s="3" t="s">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G67" s="3">
+        <v>6</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="I67" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J67" s="6">
+        <f t="shared" ca="1" si="12"/>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>87</v>
       </c>
@@ -3038,16 +3619,24 @@
         <v>81</v>
       </c>
       <c r="F68" s="3">
-        <v>6</v>
-      </c>
-      <c r="G68" s="3" t="s">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G68" s="3">
+        <v>6</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="I68" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J68" s="6">
+        <f t="shared" ca="1" si="12"/>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>88</v>
       </c>
@@ -3064,16 +3653,24 @@
         <v>81</v>
       </c>
       <c r="F69" s="3">
-        <v>6</v>
-      </c>
-      <c r="G69" s="3" t="s">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G69" s="3">
+        <v>6</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="I69" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J69" s="6">
+        <f t="shared" ca="1" si="12"/>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>89</v>
       </c>
@@ -3090,16 +3687,24 @@
         <v>81</v>
       </c>
       <c r="F70" s="3">
-        <v>6</v>
-      </c>
-      <c r="G70" s="3" t="s">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G70" s="3">
+        <v>6</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="I70" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J70" s="6">
+        <f t="shared" ca="1" si="12"/>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>90</v>
       </c>
@@ -3116,16 +3721,24 @@
         <v>81</v>
       </c>
       <c r="F71" s="3">
-        <v>6</v>
-      </c>
-      <c r="G71" s="3" t="s">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G71" s="3">
+        <v>6</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="I71" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J71" s="6">
+        <f t="shared" ca="1" si="12"/>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>91</v>
       </c>
@@ -3142,16 +3755,24 @@
         <v>81</v>
       </c>
       <c r="F72" s="3">
-        <v>6</v>
-      </c>
-      <c r="G72" s="3" t="s">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G72" s="3">
+        <v>6</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J72" s="6">
+        <f t="shared" ca="1" si="12"/>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>92</v>
       </c>
@@ -3168,16 +3789,24 @@
         <v>81</v>
       </c>
       <c r="F73" s="3">
-        <v>6</v>
-      </c>
-      <c r="G73" s="3" t="s">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G73" s="3">
+        <v>6</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="I73" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J73" s="6">
+        <f t="shared" ca="1" si="12"/>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>93</v>
       </c>
@@ -3194,16 +3823,24 @@
         <v>81</v>
       </c>
       <c r="F74" s="3">
-        <v>6</v>
-      </c>
-      <c r="G74" s="3" t="s">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G74" s="3">
+        <v>6</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="I74" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J74" s="6">
+        <f t="shared" ca="1" si="12"/>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>94</v>
       </c>
@@ -3220,16 +3857,24 @@
         <v>81</v>
       </c>
       <c r="F75" s="3">
-        <v>6</v>
-      </c>
-      <c r="G75" s="3" t="s">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G75" s="3">
+        <v>6</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J75" s="6">
+        <f t="shared" ca="1" si="12"/>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>95</v>
       </c>
@@ -3246,16 +3891,24 @@
         <v>81</v>
       </c>
       <c r="F76" s="3">
-        <v>6</v>
-      </c>
-      <c r="G76" s="3" t="s">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G76" s="3">
+        <v>6</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="I76" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J76" s="6">
+        <f t="shared" ca="1" si="12"/>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>96</v>
       </c>
@@ -3272,16 +3925,24 @@
         <v>81</v>
       </c>
       <c r="F77" s="3">
-        <v>6</v>
-      </c>
-      <c r="G77" s="3" t="s">
+        <f ca="1">F76</f>
+        <v>10</v>
+      </c>
+      <c r="G77" s="3">
+        <v>6</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="I77" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J77" s="6">
+        <f t="shared" ca="1" si="12"/>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>97</v>
       </c>
@@ -3298,16 +3959,24 @@
         <v>98</v>
       </c>
       <c r="F78" s="3">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>49</v>
+      </c>
+      <c r="G78" s="3">
         <v>7</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="H78" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="I78" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J78" s="6">
+        <f ca="1">ROUND(RAND()*10,2)</f>
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>101</v>
       </c>
@@ -3324,16 +3993,24 @@
         <v>98</v>
       </c>
       <c r="F79" s="3">
+        <f ca="1">F78</f>
+        <v>49</v>
+      </c>
+      <c r="G79" s="3">
         <v>7</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="H79" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="I79" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J79" s="6">
+        <f ca="1">J78</f>
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>102</v>
       </c>
@@ -3350,16 +4027,24 @@
         <v>98</v>
       </c>
       <c r="F80" s="3">
+        <f t="shared" ref="F80:F85" ca="1" si="13">F79</f>
+        <v>49</v>
+      </c>
+      <c r="G80" s="3">
         <v>7</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="H80" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="I80" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J80" s="6">
+        <f t="shared" ref="J80:J85" ca="1" si="14">J79</f>
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>103</v>
       </c>
@@ -3376,16 +4061,24 @@
         <v>98</v>
       </c>
       <c r="F81" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="G81" s="3">
         <v>7</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="I81" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J81" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>104</v>
       </c>
@@ -3402,16 +4095,24 @@
         <v>98</v>
       </c>
       <c r="F82" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="G82" s="3">
         <v>7</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="I82" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J82" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>105</v>
       </c>
@@ -3428,16 +4129,24 @@
         <v>98</v>
       </c>
       <c r="F83" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="G83" s="3">
         <v>7</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="I83" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J83" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>106</v>
       </c>
@@ -3454,16 +4163,24 @@
         <v>98</v>
       </c>
       <c r="F84" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="G84" s="3">
         <v>7</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="H84" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="I84" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J84" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>107</v>
       </c>
@@ -3480,16 +4197,24 @@
         <v>98</v>
       </c>
       <c r="F85" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="G85" s="3">
         <v>7</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="I85" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J85" s="6">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>108</v>
       </c>
@@ -3506,16 +4231,24 @@
         <v>109</v>
       </c>
       <c r="F86" s="3">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>35</v>
+      </c>
+      <c r="G86" s="3">
         <v>8</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J86" s="6">
+        <f ca="1">ROUND(RAND()*10,2)</f>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>110</v>
       </c>
@@ -3532,16 +4265,24 @@
         <v>109</v>
       </c>
       <c r="F87" s="3">
+        <f ca="1">F86</f>
+        <v>35</v>
+      </c>
+      <c r="G87" s="3">
         <v>8</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H87" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J87" s="6">
+        <f ca="1">J86</f>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>111</v>
       </c>
@@ -3558,16 +4299,24 @@
         <v>109</v>
       </c>
       <c r="F88" s="3">
+        <f t="shared" ref="F88:F99" ca="1" si="15">F87</f>
+        <v>35</v>
+      </c>
+      <c r="G88" s="3">
         <v>8</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="H88" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J88" s="6">
+        <f t="shared" ref="J88:J111" ca="1" si="16">J87</f>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>112</v>
       </c>
@@ -3584,16 +4333,24 @@
         <v>109</v>
       </c>
       <c r="F89" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="G89" s="3">
         <v>8</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="H89" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J89" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>113</v>
       </c>
@@ -3610,16 +4367,24 @@
         <v>109</v>
       </c>
       <c r="F90" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="G90" s="3">
         <v>8</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="H90" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J90" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>114</v>
       </c>
@@ -3636,16 +4401,24 @@
         <v>109</v>
       </c>
       <c r="F91" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="G91" s="3">
         <v>8</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J91" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>115</v>
       </c>
@@ -3662,16 +4435,24 @@
         <v>109</v>
       </c>
       <c r="F92" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="G92" s="3">
         <v>8</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="H92" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J92" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>116</v>
       </c>
@@ -3688,16 +4469,24 @@
         <v>109</v>
       </c>
       <c r="F93" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="G93" s="3">
         <v>8</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="H93" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J93" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>117</v>
       </c>
@@ -3714,16 +4503,24 @@
         <v>109</v>
       </c>
       <c r="F94" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="G94" s="3">
         <v>8</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J94" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>118</v>
       </c>
@@ -3740,16 +4537,24 @@
         <v>109</v>
       </c>
       <c r="F95" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="G95" s="3">
         <v>8</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="H95" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J95" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>119</v>
       </c>
@@ -3766,16 +4571,24 @@
         <v>109</v>
       </c>
       <c r="F96" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="G96" s="3">
         <v>8</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="H96" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H96" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J96" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>120</v>
       </c>
@@ -3792,16 +4605,24 @@
         <v>109</v>
       </c>
       <c r="F97" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="G97" s="3">
         <v>8</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="H97" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J97" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>121</v>
       </c>
@@ -3818,16 +4639,24 @@
         <v>109</v>
       </c>
       <c r="F98" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="G98" s="3">
         <v>8</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="H98" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J98" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>122</v>
       </c>
@@ -3844,16 +4673,24 @@
         <v>109</v>
       </c>
       <c r="F99" s="3">
+        <f t="shared" ca="1" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="G99" s="3">
         <v>8</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="H99" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J99" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>123</v>
       </c>
@@ -3870,16 +4707,24 @@
         <v>124</v>
       </c>
       <c r="F100" s="3">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>9</v>
+      </c>
+      <c r="G100" s="3">
         <v>8</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="I100" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J100" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>124</v>
       </c>
@@ -3896,16 +4741,24 @@
         <v>124</v>
       </c>
       <c r="F101" s="3">
+        <f ca="1">F100</f>
+        <v>9</v>
+      </c>
+      <c r="G101" s="3">
         <v>8</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="H101" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="I101" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J101" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>126</v>
       </c>
@@ -3922,16 +4775,24 @@
         <v>124</v>
       </c>
       <c r="F102" s="3">
+        <f t="shared" ref="F102:F111" ca="1" si="17">F101</f>
+        <v>9</v>
+      </c>
+      <c r="G102" s="3">
         <v>8</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="H102" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="I102" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J102" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>127</v>
       </c>
@@ -3948,16 +4809,24 @@
         <v>124</v>
       </c>
       <c r="F103" s="3">
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="G103" s="3">
         <v>8</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="H103" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="I103" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J103" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>128</v>
       </c>
@@ -3974,16 +4843,24 @@
         <v>124</v>
       </c>
       <c r="F104" s="3">
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="G104" s="3">
         <v>8</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="H104" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="I104" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J104" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>129</v>
       </c>
@@ -4000,16 +4877,24 @@
         <v>124</v>
       </c>
       <c r="F105" s="3">
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="G105" s="3">
         <v>8</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="H105" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="I105" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J105" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>130</v>
       </c>
@@ -4026,16 +4911,24 @@
         <v>124</v>
       </c>
       <c r="F106" s="3">
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="G106" s="3">
         <v>8</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="H106" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="I106" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J106" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>131</v>
       </c>
@@ -4052,16 +4945,24 @@
         <v>124</v>
       </c>
       <c r="F107" s="3">
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="G107" s="3">
         <v>8</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="H107" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="I107" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J107" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>132</v>
       </c>
@@ -4078,16 +4979,24 @@
         <v>124</v>
       </c>
       <c r="F108" s="3">
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="G108" s="3">
         <v>8</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="H108" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="I108" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J108" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>133</v>
       </c>
@@ -4104,16 +5013,24 @@
         <v>124</v>
       </c>
       <c r="F109" s="3">
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="G109" s="3">
         <v>8</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="H109" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="I109" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J109" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>134</v>
       </c>
@@ -4130,16 +5047,24 @@
         <v>124</v>
       </c>
       <c r="F110" s="3">
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="G110" s="3">
         <v>8</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="H110" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J110" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>135</v>
       </c>
@@ -4156,16 +5081,24 @@
         <v>124</v>
       </c>
       <c r="F111" s="3">
+        <f t="shared" ca="1" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="G111" s="3">
         <v>8</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="H111" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H111" s="3" t="s">
+      <c r="I111" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J111" s="6">
+        <f t="shared" ca="1" si="16"/>
+        <v>5.38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>136</v>
       </c>
@@ -4182,16 +5115,24 @@
         <v>137</v>
       </c>
       <c r="F112" s="3">
+        <f ca="1">RANDBETWEEN(1,50)</f>
         <v>9</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G112" s="3">
+        <v>9</v>
+      </c>
+      <c r="H112" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H112" s="3" t="s">
+      <c r="I112" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J112" s="6">
+        <f ca="1">ROUND(RAND()*10,2)</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>140</v>
       </c>
@@ -4208,16 +5149,24 @@
         <v>137</v>
       </c>
       <c r="F113" s="3">
+        <f ca="1">F112</f>
         <v>9</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="G113" s="3">
+        <v>9</v>
+      </c>
+      <c r="H113" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="I113" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J113" s="6">
+        <f ca="1">J112</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>141</v>
       </c>
@@ -4234,16 +5183,24 @@
         <v>137</v>
       </c>
       <c r="F114" s="3">
+        <f t="shared" ref="F114:F122" ca="1" si="18">F113</f>
         <v>9</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G114" s="3">
+        <v>9</v>
+      </c>
+      <c r="H114" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="I114" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J114" s="6">
+        <f t="shared" ref="J114:J123" ca="1" si="19">J113</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>142</v>
       </c>
@@ -4260,16 +5217,24 @@
         <v>137</v>
       </c>
       <c r="F115" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>9</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="G115" s="3">
+        <v>9</v>
+      </c>
+      <c r="H115" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="I115" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J115" s="6">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>143</v>
       </c>
@@ -4286,16 +5251,24 @@
         <v>137</v>
       </c>
       <c r="F116" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>9</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="G116" s="3">
+        <v>9</v>
+      </c>
+      <c r="H116" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H116" s="3" t="s">
+      <c r="I116" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J116" s="6">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>144</v>
       </c>
@@ -4312,16 +5285,24 @@
         <v>137</v>
       </c>
       <c r="F117" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>9</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G117" s="3">
+        <v>9</v>
+      </c>
+      <c r="H117" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="I117" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J117" s="6">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>145</v>
       </c>
@@ -4338,16 +5319,24 @@
         <v>137</v>
       </c>
       <c r="F118" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>9</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G118" s="3">
+        <v>9</v>
+      </c>
+      <c r="H118" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="I118" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J118" s="6">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>146</v>
       </c>
@@ -4364,16 +5353,24 @@
         <v>137</v>
       </c>
       <c r="F119" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>9</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="G119" s="3">
+        <v>9</v>
+      </c>
+      <c r="H119" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H119" s="3" t="s">
+      <c r="I119" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J119" s="6">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>147</v>
       </c>
@@ -4390,16 +5387,24 @@
         <v>137</v>
       </c>
       <c r="F120" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>9</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G120" s="3">
+        <v>9</v>
+      </c>
+      <c r="H120" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="I120" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J120" s="6">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>148</v>
       </c>
@@ -4416,16 +5421,24 @@
         <v>137</v>
       </c>
       <c r="F121" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>9</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G121" s="3">
+        <v>9</v>
+      </c>
+      <c r="H121" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="I121" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J121" s="6">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>149</v>
       </c>
@@ -4442,16 +5455,24 @@
         <v>137</v>
       </c>
       <c r="F122" s="3">
+        <f t="shared" ca="1" si="18"/>
         <v>9</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="G122" s="3">
+        <v>9</v>
+      </c>
+      <c r="H122" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="I122" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J122" s="6">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>150</v>
       </c>
@@ -4468,16 +5489,24 @@
         <v>137</v>
       </c>
       <c r="F123" s="3">
+        <f ca="1">F122</f>
         <v>9</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="G123" s="3">
+        <v>9</v>
+      </c>
+      <c r="H123" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="I123" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J123" s="6">
+        <f t="shared" ca="1" si="19"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>151</v>
       </c>
@@ -4494,16 +5523,24 @@
         <v>152</v>
       </c>
       <c r="F124" s="3">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>2</v>
+      </c>
+      <c r="G124" s="3">
         <v>10</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="H124" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="I124" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J124" s="6">
+        <f ca="1">ROUND(RAND()*10,2)</f>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>154</v>
       </c>
@@ -4520,16 +5557,24 @@
         <v>152</v>
       </c>
       <c r="F125" s="3">
+        <f ca="1">F124</f>
+        <v>2</v>
+      </c>
+      <c r="G125" s="3">
         <v>10</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="H125" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="I125" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J125" s="6">
+        <f ca="1">J124</f>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>155</v>
       </c>
@@ -4546,16 +5591,24 @@
         <v>152</v>
       </c>
       <c r="F126" s="3">
+        <f t="shared" ref="F126:F131" ca="1" si="20">F125</f>
+        <v>2</v>
+      </c>
+      <c r="G126" s="3">
         <v>10</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="H126" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="I126" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J126" s="6">
+        <f t="shared" ref="J126:J131" ca="1" si="21">J125</f>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>156</v>
       </c>
@@ -4572,16 +5625,24 @@
         <v>152</v>
       </c>
       <c r="F127" s="3">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="G127" s="3">
         <v>10</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="H127" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="I127" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J127" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>157</v>
       </c>
@@ -4598,16 +5659,24 @@
         <v>152</v>
       </c>
       <c r="F128" s="3">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="G128" s="3">
         <v>10</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="H128" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H128" s="3" t="s">
+      <c r="I128" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J128" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>158</v>
       </c>
@@ -4624,16 +5693,24 @@
         <v>152</v>
       </c>
       <c r="F129" s="3">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="G129" s="3">
         <v>10</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="H129" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="I129" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J129" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>159</v>
       </c>
@@ -4650,16 +5727,24 @@
         <v>152</v>
       </c>
       <c r="F130" s="3">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="G130" s="3">
         <v>10</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="H130" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="I130" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J130" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>160</v>
       </c>
@@ -4676,16 +5761,24 @@
         <v>152</v>
       </c>
       <c r="F131" s="3">
+        <f t="shared" ca="1" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="G131" s="3">
         <v>10</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="H131" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="I131" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J131" s="6">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>161</v>
       </c>
@@ -4702,16 +5795,24 @@
         <v>162</v>
       </c>
       <c r="F132" s="3">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>30</v>
+      </c>
+      <c r="G132" s="3">
         <v>11</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="H132" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="I132" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J132" s="6">
+        <f ca="1">ROUND(RAND()*10,2)</f>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>164</v>
       </c>
@@ -4728,16 +5829,24 @@
         <v>162</v>
       </c>
       <c r="F133" s="3">
+        <f ca="1">F132</f>
+        <v>30</v>
+      </c>
+      <c r="G133" s="3">
         <v>11</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="H133" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="I133" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J133" s="6">
+        <f ca="1">J132</f>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>165</v>
       </c>
@@ -4754,16 +5863,24 @@
         <v>162</v>
       </c>
       <c r="F134" s="3">
+        <f t="shared" ref="F134:F144" ca="1" si="22">F133</f>
+        <v>30</v>
+      </c>
+      <c r="G134" s="3">
         <v>11</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="H134" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="I134" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J134" s="6">
+        <f t="shared" ref="J134:J149" ca="1" si="23">J133</f>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>166</v>
       </c>
@@ -4780,16 +5897,24 @@
         <v>162</v>
       </c>
       <c r="F135" s="3">
+        <f t="shared" ca="1" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="G135" s="3">
         <v>11</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="H135" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="I135" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J135" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>167</v>
       </c>
@@ -4806,16 +5931,24 @@
         <v>162</v>
       </c>
       <c r="F136" s="3">
+        <f t="shared" ca="1" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="G136" s="3">
         <v>11</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="H136" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="I136" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J136" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>168</v>
       </c>
@@ -4832,16 +5965,24 @@
         <v>162</v>
       </c>
       <c r="F137" s="3">
+        <f t="shared" ca="1" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="G137" s="3">
         <v>11</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="H137" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="I137" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J137" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>169</v>
       </c>
@@ -4858,16 +5999,24 @@
         <v>162</v>
       </c>
       <c r="F138" s="3">
+        <f t="shared" ca="1" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="G138" s="3">
         <v>11</v>
       </c>
-      <c r="G138" s="3" t="s">
+      <c r="H138" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="I138" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J138" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>170</v>
       </c>
@@ -4884,16 +6033,24 @@
         <v>162</v>
       </c>
       <c r="F139" s="3">
+        <f t="shared" ca="1" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="G139" s="3">
         <v>11</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="H139" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="I139" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J139" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>171</v>
       </c>
@@ -4910,16 +6067,24 @@
         <v>162</v>
       </c>
       <c r="F140" s="3">
+        <f t="shared" ca="1" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="G140" s="3">
         <v>11</v>
       </c>
-      <c r="G140" s="3" t="s">
+      <c r="H140" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="I140" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J140" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>172</v>
       </c>
@@ -4936,16 +6101,24 @@
         <v>162</v>
       </c>
       <c r="F141" s="3">
+        <f t="shared" ca="1" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="G141" s="3">
         <v>11</v>
       </c>
-      <c r="G141" s="3" t="s">
+      <c r="H141" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H141" s="3" t="s">
+      <c r="I141" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J141" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>173</v>
       </c>
@@ -4962,16 +6135,24 @@
         <v>162</v>
       </c>
       <c r="F142" s="3">
+        <f t="shared" ca="1" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="G142" s="3">
         <v>11</v>
       </c>
-      <c r="G142" s="3" t="s">
+      <c r="H142" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H142" s="3" t="s">
+      <c r="I142" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J142" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>174</v>
       </c>
@@ -4988,16 +6169,24 @@
         <v>162</v>
       </c>
       <c r="F143" s="3">
+        <f t="shared" ca="1" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="G143" s="3">
         <v>11</v>
       </c>
-      <c r="G143" s="3" t="s">
+      <c r="H143" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H143" s="3" t="s">
+      <c r="I143" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J143" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>175</v>
       </c>
@@ -5014,16 +6203,24 @@
         <v>162</v>
       </c>
       <c r="F144" s="3">
+        <f t="shared" ca="1" si="22"/>
+        <v>30</v>
+      </c>
+      <c r="G144" s="3">
         <v>11</v>
       </c>
-      <c r="G144" s="3" t="s">
+      <c r="H144" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H144" s="3" t="s">
+      <c r="I144" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J144" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>176</v>
       </c>
@@ -5040,16 +6237,24 @@
         <v>177</v>
       </c>
       <c r="F145" s="3">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>13</v>
+      </c>
+      <c r="G145" s="3">
         <v>11</v>
       </c>
-      <c r="G145" s="3" t="s">
+      <c r="H145" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H145" s="3" t="s">
+      <c r="I145" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J145" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>178</v>
       </c>
@@ -5066,16 +6271,24 @@
         <v>177</v>
       </c>
       <c r="F146" s="3">
+        <f ca="1">F145</f>
+        <v>13</v>
+      </c>
+      <c r="G146" s="3">
         <v>11</v>
       </c>
-      <c r="G146" s="3" t="s">
+      <c r="H146" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H146" s="3" t="s">
+      <c r="I146" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J146" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>179</v>
       </c>
@@ -5092,16 +6305,24 @@
         <v>177</v>
       </c>
       <c r="F147" s="3">
+        <f t="shared" ref="F147:F149" ca="1" si="24">F146</f>
+        <v>13</v>
+      </c>
+      <c r="G147" s="3">
         <v>11</v>
       </c>
-      <c r="G147" s="3" t="s">
+      <c r="H147" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H147" s="3" t="s">
+      <c r="I147" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J147" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>180</v>
       </c>
@@ -5118,16 +6339,24 @@
         <v>177</v>
       </c>
       <c r="F148" s="3">
+        <f t="shared" ca="1" si="24"/>
+        <v>13</v>
+      </c>
+      <c r="G148" s="3">
         <v>11</v>
       </c>
-      <c r="G148" s="3" t="s">
+      <c r="H148" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H148" s="3" t="s">
+      <c r="I148" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J148" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>181</v>
       </c>
@@ -5144,16 +6373,24 @@
         <v>177</v>
       </c>
       <c r="F149" s="3">
+        <f t="shared" ca="1" si="24"/>
+        <v>13</v>
+      </c>
+      <c r="G149" s="3">
         <v>11</v>
       </c>
-      <c r="G149" s="3" t="s">
+      <c r="H149" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H149" s="3" t="s">
+      <c r="I149" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J149" s="6">
+        <f t="shared" ca="1" si="23"/>
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>182</v>
       </c>
@@ -5170,16 +6407,24 @@
         <v>182</v>
       </c>
       <c r="F150" s="3">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>16</v>
+      </c>
+      <c r="G150" s="3">
         <v>12</v>
       </c>
-      <c r="G150" s="3" t="s">
+      <c r="H150" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H150" s="3" t="s">
+      <c r="I150" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J150" s="6">
+        <f ca="1">ROUND(RAND()*10,2)</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>183</v>
       </c>
@@ -5196,18 +6441,26 @@
         <v>182</v>
       </c>
       <c r="F151" s="3">
+        <f ca="1">F150</f>
+        <v>16</v>
+      </c>
+      <c r="G151" s="3">
         <v>12</v>
       </c>
-      <c r="G151" s="3" t="s">
+      <c r="H151" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H151" s="3" t="s">
+      <c r="I151" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J151" s="6">
+        <f ca="1">J150</f>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B152" s="10">
         <v>95</v>
@@ -5219,21 +6472,29 @@
         <v>337423</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F152" s="10">
+        <v>189</v>
+      </c>
+      <c r="F152" s="3">
+        <f t="shared" ref="F152:F158" ca="1" si="25">RANDBETWEEN(1,50)</f>
+        <v>27</v>
+      </c>
+      <c r="G152" s="10">
         <v>90</v>
       </c>
-      <c r="G152" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H152" s="3" t="s">
+      <c r="H152" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I152" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J152" s="6">
+        <f ca="1">ROUND(RAND()*10,2)</f>
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B153" s="10">
         <v>102</v>
@@ -5245,21 +6506,29 @@
         <v>366550</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F153" s="10">
+        <v>190</v>
+      </c>
+      <c r="F153" s="3">
+        <f t="shared" ca="1" si="25"/>
+        <v>34</v>
+      </c>
+      <c r="G153" s="10">
         <v>90</v>
       </c>
-      <c r="G153" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H153" s="3" t="s">
+      <c r="H153" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I153" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J153" s="6">
+        <f ca="1">J152</f>
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B154" s="10">
         <v>104</v>
@@ -5271,21 +6540,29 @@
         <v>338233</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F154" s="10">
+        <v>191</v>
+      </c>
+      <c r="F154" s="3">
+        <f t="shared" ca="1" si="25"/>
+        <v>23</v>
+      </c>
+      <c r="G154" s="10">
         <v>90</v>
       </c>
-      <c r="G154" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H154" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H154" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J154" s="6">
+        <f t="shared" ref="J154:J156" ca="1" si="26">J153</f>
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B155" s="10">
         <v>107</v>
@@ -5297,21 +6574,29 @@
         <v>359810</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F155" s="10">
+        <v>192</v>
+      </c>
+      <c r="F155" s="3">
+        <f t="shared" ca="1" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="G155" s="10">
         <v>90</v>
       </c>
-      <c r="G155" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H155" s="3" t="s">
+      <c r="H155" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I155" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J155" s="6">
+        <f t="shared" ca="1" si="26"/>
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B156" s="10">
         <v>108</v>
@@ -5323,21 +6608,29 @@
         <v>386821</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="F156" s="10">
+        <v>193</v>
+      </c>
+      <c r="F156" s="3">
+        <f t="shared" ca="1" si="25"/>
+        <v>31</v>
+      </c>
+      <c r="G156" s="10">
         <v>90</v>
       </c>
-      <c r="G156" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H156" s="3" t="s">
+      <c r="H156" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I156" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J156" s="6">
+        <f t="shared" ca="1" si="26"/>
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B157" s="10">
         <v>26</v>
@@ -5349,21 +6642,29 @@
         <v>248842</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F157" s="10">
+        <v>194</v>
+      </c>
+      <c r="F157" s="3">
+        <f t="shared" ca="1" si="25"/>
+        <v>44</v>
+      </c>
+      <c r="G157" s="10">
         <v>19</v>
       </c>
-      <c r="G157" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="H157" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="I157" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J157" s="6">
+        <f ca="1">ROUND(RAND()*10,2)</f>
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B158" s="10">
         <v>27</v>
@@ -5375,16 +6676,24 @@
         <v>282174</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="F158" s="10">
+        <v>195</v>
+      </c>
+      <c r="F158" s="3">
+        <f t="shared" ca="1" si="25"/>
+        <v>32</v>
+      </c>
+      <c r="G158" s="10">
         <v>19</v>
       </c>
-      <c r="G158" s="10" t="s">
-        <v>198</v>
-      </c>
       <c r="H158" s="10" t="s">
-        <v>189</v>
+        <v>197</v>
+      </c>
+      <c r="I158" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J158" s="6">
+        <f ca="1">J157</f>
+        <v>1.78</v>
       </c>
     </row>
   </sheetData>
@@ -5397,28 +6706,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901E831D-2C03-4521-8B7A-119BF20B5946}">
   <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.5546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="6" customWidth="1"/>
     <col min="4" max="14" width="20.77734375" style="1" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -7073,7 +8382,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B152" s="10">
         <v>95</v>
@@ -7084,7 +8393,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B153" s="10">
         <v>102</v>
@@ -7095,7 +8404,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B154" s="10">
         <v>104</v>
@@ -7106,7 +8415,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B155" s="10">
         <v>107</v>
@@ -7117,7 +8426,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B156" s="10">
         <v>108</v>
@@ -7128,7 +8437,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B157" s="10">
         <v>26</v>
@@ -7139,7 +8448,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B158" s="10">
         <v>27</v>
@@ -7157,30 +8466,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC98BCD9-B4AD-4450-88EE-C5027873CF02}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="47.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="21" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
@@ -7192,10 +8506,13 @@
       <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4"/>
+      <c r="D2" s="27">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <f ca="1">RANDBETWEEN(1, 50)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
@@ -7207,10 +8524,13 @@
       <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="27">
         <v>2</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E24" ca="1" si="0">RANDBETWEEN(1, 50)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
@@ -7222,10 +8542,13 @@
       <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="27">
         <v>2</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
@@ -7237,10 +8560,13 @@
       <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4"/>
+      <c r="D5" s="27">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
@@ -7252,10 +8578,13 @@
       <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="27">
         <v>3</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
@@ -7267,10 +8596,13 @@
       <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="27">
         <v>4</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
@@ -7282,10 +8614,13 @@
       <c r="C8" s="9">
         <v>1</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="27">
         <v>5</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
@@ -7297,10 +8632,13 @@
       <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="9">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4"/>
+      <c r="D9" s="27">
+        <v>6</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
@@ -7312,10 +8650,13 @@
       <c r="C10" s="9">
         <v>3</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="27">
         <v>7</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
@@ -7327,10 +8668,13 @@
       <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="27">
         <v>8</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
@@ -7342,10 +8686,13 @@
       <c r="C12" s="9">
         <v>4</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="27">
         <v>8</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
@@ -7357,10 +8704,13 @@
       <c r="C13" s="9">
         <v>5</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="27">
         <v>9</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
@@ -7372,10 +8722,13 @@
       <c r="C14" s="9">
         <v>2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="27">
         <v>10</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
@@ -7387,10 +8740,13 @@
       <c r="C15" s="9">
         <v>3</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="27">
         <v>11</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
@@ -7402,10 +8758,13 @@
       <c r="C16" s="9">
         <v>3</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="27">
         <v>11</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
@@ -7417,23 +8776,30 @@
       <c r="C17" s="9">
         <v>3</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="27">
         <v>12</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>26</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C18" s="10">
         <v>8</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="26">
         <v>19</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7441,13 +8807,17 @@
         <v>27</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" s="10">
         <v>8</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="26">
         <v>19</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7455,13 +8825,17 @@
         <v>95</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C20" s="10">
         <v>3</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="26">
         <v>90</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7469,13 +8843,17 @@
         <v>102</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" s="10">
         <v>3</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="26">
         <v>90</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7483,13 +8861,17 @@
         <v>104</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="10">
         <v>1</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="26">
         <v>90</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7497,13 +8879,17 @@
         <v>107</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" s="10">
         <v>3</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="26">
         <v>90</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -7511,13 +8897,17 @@
         <v>108</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C24" s="10">
         <v>3</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="26">
         <v>90</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -7525,142 +8915,203 @@
     <sortCondition ref="A19:A24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9B1940-7862-44B8-919F-A8835D584A00}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="27" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="20.109375" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="9">
+        <f ca="1">ROUND(RAND()*9+1,1)</f>
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C15" ca="1" si="0">ROUND(RAND()*9+1,1)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="25" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="25" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="25" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="25" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="25" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="25" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="25" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>19</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>90</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>197</v>
+      <c r="B15" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7673,8 +9124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FC83B0-592E-4F68-8CC9-8A013A607834}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -7686,10 +9137,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7737,7 +9188,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -8154,7 +9605,7 @@
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" s="14">
         <v>107</v>
@@ -8166,13 +9617,13 @@
         <v>359810</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F16" s="14">
         <v>90</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>100</v>
@@ -8180,7 +9631,7 @@
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" s="14">
         <v>26</v>
@@ -8192,21 +9643,21 @@
         <v>248842</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F17" s="14">
         <v>19</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="14">
         <v>27</v>
@@ -8218,16 +9669,16 @@
         <v>282174</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F18" s="14">
         <v>19</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8568,16 +10019,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10" s="17">
         <v>19</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8588,16 +10039,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D11" s="17">
         <v>19</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8608,13 +10059,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" s="17">
         <v>90</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>100</v>

--- a/data/tracks1.xlsx
+++ b/data/tracks1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google\University\data_analysis\work\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80012F5B-D7A1-4163-8030-160CCBD55A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A5852B-18BB-4A22-ACD0-B635C51E0DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{D330D843-1082-44C3-89B4-2E52DF297FF6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="228">
   <si>
     <t>Name</t>
   </si>
@@ -673,13 +673,64 @@
   </si>
   <si>
     <t>Трек ID</t>
+  </si>
+  <si>
+    <t>Место создания</t>
+  </si>
+  <si>
+    <t>Нью-йорк</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Ташкент</t>
+  </si>
+  <si>
+    <t>Баку</t>
+  </si>
+  <si>
+    <t>Алушта</t>
+  </si>
+  <si>
+    <t>Феодосия</t>
+  </si>
+  <si>
+    <t>Ялта</t>
+  </si>
+  <si>
+    <t>Севастополь</t>
+  </si>
+  <si>
+    <t>Симферополь</t>
+  </si>
+  <si>
+    <t>Абакан</t>
+  </si>
+  <si>
+    <t>Адлер</t>
+  </si>
+  <si>
+    <t>Хабаровск</t>
+  </si>
+  <si>
+    <t>Кострома</t>
+  </si>
+  <si>
+    <t>Курган</t>
+  </si>
+  <si>
+    <t>Курск</t>
+  </si>
+  <si>
+    <t>Липецк</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,6 +790,13 @@
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -928,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1006,6 +1064,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1321,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114091D3-0074-4988-A357-883FBA4E4F47}">
-  <dimension ref="A1:K158"/>
+  <dimension ref="A1:L159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B149" sqref="B149"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1342,7 +1403,7 @@
     <col min="22" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>210</v>
       </c>
@@ -1376,8 +1437,11 @@
       <c r="K1" s="6" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1398,7 +1462,7 @@
       </c>
       <c r="G2" s="3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -1411,10 +1475,13 @@
       </c>
       <c r="K2" s="6">
         <f ca="1">ROUND(RAND()*10,2)</f>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1435,7 +1502,7 @@
       </c>
       <c r="G3" s="3">
         <f ca="1">G2</f>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H3" s="3">
         <v>1</v>
@@ -1448,10 +1515,13 @@
       </c>
       <c r="K3" s="6">
         <f ca="1">K2</f>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1472,7 +1542,7 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" ref="G4:G11" ca="1" si="0">G3</f>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3">
         <v>1</v>
@@ -1485,10 +1555,13 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ref="K4:K11" ca="1" si="1">K3</f>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1509,7 +1582,7 @@
       </c>
       <c r="G5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3">
         <v>1</v>
@@ -1522,10 +1595,13 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1546,7 +1622,7 @@
       </c>
       <c r="G6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H6" s="3">
         <v>1</v>
@@ -1559,10 +1635,13 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1583,7 +1662,7 @@
       </c>
       <c r="G7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H7" s="3">
         <v>1</v>
@@ -1596,10 +1675,13 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1620,7 +1702,7 @@
       </c>
       <c r="G8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1633,10 +1715,13 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1657,7 +1742,7 @@
       </c>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
@@ -1670,10 +1755,13 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1694,7 +1782,7 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -1707,10 +1795,13 @@
       </c>
       <c r="K10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1731,7 +1822,7 @@
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
@@ -1744,10 +1835,13 @@
       </c>
       <c r="K11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1768,7 +1862,7 @@
       </c>
       <c r="G12" s="3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H12" s="3">
         <v>2</v>
@@ -1781,10 +1875,13 @@
       </c>
       <c r="K12" s="6">
         <f ca="1">ROUND(RAND()*10,2)</f>
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.84</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1805,7 +1902,7 @@
       </c>
       <c r="G13" s="3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H13" s="3">
         <v>2</v>
@@ -1818,10 +1915,13 @@
       </c>
       <c r="K13" s="6">
         <f ca="1">K12</f>
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.84</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1842,7 +1942,7 @@
       </c>
       <c r="G14" s="3">
         <f ca="1">G13</f>
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H14" s="3">
         <v>2</v>
@@ -1855,10 +1955,13 @@
       </c>
       <c r="K14" s="6">
         <f t="shared" ref="K14:K15" ca="1" si="2">K13</f>
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.84</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1879,7 +1982,7 @@
       </c>
       <c r="G15" s="3">
         <f ca="1">G14</f>
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H15" s="3">
         <v>2</v>
@@ -1892,10 +1995,13 @@
       </c>
       <c r="K15" s="6">
         <f t="shared" ca="1" si="2"/>
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>9.84</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1916,7 +2022,7 @@
       </c>
       <c r="G16" s="3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H16" s="3">
         <v>1</v>
@@ -1929,10 +2035,13 @@
       </c>
       <c r="K16" s="6">
         <f ca="1">K2</f>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1953,7 +2062,7 @@
       </c>
       <c r="G17" s="3">
         <f ca="1">G16</f>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -1966,10 +2075,13 @@
       </c>
       <c r="K17" s="6">
         <f t="shared" ref="K17:K23" ca="1" si="3">K3</f>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1990,7 +2102,7 @@
       </c>
       <c r="G18" s="3">
         <f t="shared" ref="G18:G23" ca="1" si="4">G17</f>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
@@ -2003,10 +2115,13 @@
       </c>
       <c r="K18" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -2027,7 +2142,7 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H19" s="3">
         <v>1</v>
@@ -2040,10 +2155,13 @@
       </c>
       <c r="K19" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -2064,7 +2182,7 @@
       </c>
       <c r="G20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -2077,10 +2195,13 @@
       </c>
       <c r="K20" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -2101,7 +2222,7 @@
       </c>
       <c r="G21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H21" s="3">
         <v>1</v>
@@ -2114,10 +2235,13 @@
       </c>
       <c r="K21" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -2138,7 +2262,7 @@
       </c>
       <c r="G22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -2151,10 +2275,13 @@
       </c>
       <c r="K22" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -2175,7 +2302,7 @@
       </c>
       <c r="G23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -2188,10 +2315,13 @@
       </c>
       <c r="K23" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -2212,7 +2342,7 @@
       </c>
       <c r="G24" s="3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H24" s="3">
         <v>3</v>
@@ -2225,10 +2355,13 @@
       </c>
       <c r="K24" s="6">
         <f ca="1">ROUND(RAND()*10,2)</f>
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.42</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -2249,7 +2382,7 @@
       </c>
       <c r="G25" s="3">
         <f ca="1">G24</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H25" s="3">
         <v>3</v>
@@ -2262,10 +2395,13 @@
       </c>
       <c r="K25" s="6">
         <f ca="1">K24</f>
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.42</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -2286,7 +2422,7 @@
       </c>
       <c r="G26" s="3">
         <f t="shared" ref="G26:G38" ca="1" si="5">G25</f>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H26" s="3">
         <v>3</v>
@@ -2299,10 +2435,13 @@
       </c>
       <c r="K26" s="6">
         <f t="shared" ref="K26:K38" ca="1" si="6">K25</f>
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.42</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -2323,7 +2462,7 @@
       </c>
       <c r="G27" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H27" s="3">
         <v>3</v>
@@ -2336,10 +2475,13 @@
       </c>
       <c r="K27" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.42</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -2360,7 +2502,7 @@
       </c>
       <c r="G28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H28" s="3">
         <v>3</v>
@@ -2373,10 +2515,13 @@
       </c>
       <c r="K28" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.42</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -2397,7 +2542,7 @@
       </c>
       <c r="G29" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H29" s="3">
         <v>3</v>
@@ -2410,10 +2555,13 @@
       </c>
       <c r="K29" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.42</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -2434,7 +2582,7 @@
       </c>
       <c r="G30" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H30" s="3">
         <v>3</v>
@@ -2447,10 +2595,13 @@
       </c>
       <c r="K30" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.42</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -2471,7 +2622,7 @@
       </c>
       <c r="G31" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H31" s="3">
         <v>3</v>
@@ -2484,10 +2635,13 @@
       </c>
       <c r="K31" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.42</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -2508,7 +2662,7 @@
       </c>
       <c r="G32" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H32" s="3">
         <v>3</v>
@@ -2521,10 +2675,13 @@
       </c>
       <c r="K32" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.42</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -2545,7 +2702,7 @@
       </c>
       <c r="G33" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H33" s="3">
         <v>3</v>
@@ -2558,10 +2715,13 @@
       </c>
       <c r="K33" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.42</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -2582,7 +2742,7 @@
       </c>
       <c r="G34" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H34" s="3">
         <v>3</v>
@@ -2595,10 +2755,13 @@
       </c>
       <c r="K34" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.42</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -2619,7 +2782,7 @@
       </c>
       <c r="G35" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H35" s="3">
         <v>3</v>
@@ -2632,10 +2795,13 @@
       </c>
       <c r="K35" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.42</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -2656,7 +2822,7 @@
       </c>
       <c r="G36" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H36" s="3">
         <v>3</v>
@@ -2669,10 +2835,13 @@
       </c>
       <c r="K36" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.42</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -2693,7 +2862,7 @@
       </c>
       <c r="G37" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H37" s="3">
         <v>3</v>
@@ -2706,10 +2875,13 @@
       </c>
       <c r="K37" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.42</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -2730,7 +2902,7 @@
       </c>
       <c r="G38" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H38" s="3">
         <v>3</v>
@@ -2743,10 +2915,13 @@
       </c>
       <c r="K38" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.42</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -2767,7 +2942,7 @@
       </c>
       <c r="G39" s="3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H39" s="3">
         <v>4</v>
@@ -2780,10 +2955,13 @@
       </c>
       <c r="K39" s="6">
         <f ca="1">ROUND(RAND()*10,2)</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.96</v>
+      </c>
+      <c r="L39" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -2804,7 +2982,7 @@
       </c>
       <c r="G40" s="3">
         <f ca="1">G39</f>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H40" s="3">
         <v>4</v>
@@ -2817,10 +2995,13 @@
       </c>
       <c r="K40" s="6">
         <f ca="1">K39</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.96</v>
+      </c>
+      <c r="L40" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -2841,7 +3022,7 @@
       </c>
       <c r="G41" s="3">
         <f t="shared" ref="G41:G51" ca="1" si="7">G40</f>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H41" s="3">
         <v>4</v>
@@ -2854,10 +3035,13 @@
       </c>
       <c r="K41" s="6">
         <f t="shared" ref="K41:K51" ca="1" si="8">K40</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.96</v>
+      </c>
+      <c r="L41" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -2878,7 +3062,7 @@
       </c>
       <c r="G42" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H42" s="3">
         <v>4</v>
@@ -2891,10 +3075,13 @@
       </c>
       <c r="K42" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.96</v>
+      </c>
+      <c r="L42" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -2915,7 +3102,7 @@
       </c>
       <c r="G43" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H43" s="3">
         <v>4</v>
@@ -2928,10 +3115,13 @@
       </c>
       <c r="K43" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.96</v>
+      </c>
+      <c r="L43" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -2952,7 +3142,7 @@
       </c>
       <c r="G44" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H44" s="3">
         <v>4</v>
@@ -2965,10 +3155,13 @@
       </c>
       <c r="K44" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.96</v>
+      </c>
+      <c r="L44" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -2989,7 +3182,7 @@
       </c>
       <c r="G45" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H45" s="3">
         <v>4</v>
@@ -3002,10 +3195,13 @@
       </c>
       <c r="K45" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.96</v>
+      </c>
+      <c r="L45" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -3026,7 +3222,7 @@
       </c>
       <c r="G46" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H46" s="3">
         <v>4</v>
@@ -3039,10 +3235,13 @@
       </c>
       <c r="K46" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.96</v>
+      </c>
+      <c r="L46" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -3063,7 +3262,7 @@
       </c>
       <c r="G47" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H47" s="3">
         <v>4</v>
@@ -3076,10 +3275,13 @@
       </c>
       <c r="K47" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.96</v>
+      </c>
+      <c r="L47" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -3100,7 +3302,7 @@
       </c>
       <c r="G48" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H48" s="3">
         <v>4</v>
@@ -3113,10 +3315,13 @@
       </c>
       <c r="K48" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.96</v>
+      </c>
+      <c r="L48" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -3137,7 +3342,7 @@
       </c>
       <c r="G49" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H49" s="3">
         <v>4</v>
@@ -3150,10 +3355,13 @@
       </c>
       <c r="K49" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.96</v>
+      </c>
+      <c r="L49" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -3174,7 +3382,7 @@
       </c>
       <c r="G50" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H50" s="3">
         <v>4</v>
@@ -3187,10 +3395,13 @@
       </c>
       <c r="K50" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.96</v>
+      </c>
+      <c r="L50" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -3211,7 +3422,7 @@
       </c>
       <c r="G51" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H51" s="3">
         <v>4</v>
@@ -3224,10 +3435,13 @@
       </c>
       <c r="K51" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.96</v>
+      </c>
+      <c r="L51" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -3248,7 +3462,7 @@
       </c>
       <c r="G52" s="3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H52" s="3">
         <v>5</v>
@@ -3261,10 +3475,13 @@
       </c>
       <c r="K52" s="6">
         <f ca="1">ROUND(RAND()*10,2)</f>
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.92</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -3285,7 +3502,7 @@
       </c>
       <c r="G53" s="3">
         <f ca="1">G52</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H53" s="3">
         <v>5</v>
@@ -3298,10 +3515,13 @@
       </c>
       <c r="K53" s="6">
         <f ca="1">K52</f>
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.92</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -3322,7 +3542,7 @@
       </c>
       <c r="G54" s="3">
         <f t="shared" ref="G54:G63" ca="1" si="9">G53</f>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H54" s="3">
         <v>5</v>
@@ -3335,10 +3555,13 @@
       </c>
       <c r="K54" s="6">
         <f t="shared" ref="K54:K63" ca="1" si="10">K53</f>
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.92</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -3359,7 +3582,7 @@
       </c>
       <c r="G55" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H55" s="3">
         <v>5</v>
@@ -3372,10 +3595,13 @@
       </c>
       <c r="K55" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.92</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -3396,7 +3622,7 @@
       </c>
       <c r="G56" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H56" s="3">
         <v>5</v>
@@ -3409,10 +3635,13 @@
       </c>
       <c r="K56" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.92</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -3433,7 +3662,7 @@
       </c>
       <c r="G57" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H57" s="3">
         <v>5</v>
@@ -3446,10 +3675,13 @@
       </c>
       <c r="K57" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.92</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -3470,7 +3702,7 @@
       </c>
       <c r="G58" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H58" s="3">
         <v>5</v>
@@ -3483,10 +3715,13 @@
       </c>
       <c r="K58" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.92</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -3507,7 +3742,7 @@
       </c>
       <c r="G59" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H59" s="3">
         <v>5</v>
@@ -3520,10 +3755,13 @@
       </c>
       <c r="K59" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.92</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -3544,7 +3782,7 @@
       </c>
       <c r="G60" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H60" s="3">
         <v>5</v>
@@ -3557,10 +3795,13 @@
       </c>
       <c r="K60" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.92</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -3581,7 +3822,7 @@
       </c>
       <c r="G61" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H61" s="3">
         <v>5</v>
@@ -3594,10 +3835,13 @@
       </c>
       <c r="K61" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.92</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -3618,7 +3862,7 @@
       </c>
       <c r="G62" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H62" s="3">
         <v>5</v>
@@ -3631,10 +3875,13 @@
       </c>
       <c r="K62" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.92</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -3655,7 +3902,7 @@
       </c>
       <c r="G63" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H63" s="3">
         <v>5</v>
@@ -3668,10 +3915,13 @@
       </c>
       <c r="K63" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>7.51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.92</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -3692,7 +3942,7 @@
       </c>
       <c r="G64" s="3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H64" s="3">
         <v>6</v>
@@ -3705,10 +3955,13 @@
       </c>
       <c r="K64" s="6">
         <f ca="1">ROUND(RAND()*10,2)</f>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.09</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -3729,7 +3982,7 @@
       </c>
       <c r="G65" s="3">
         <f ca="1">G64</f>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H65" s="3">
         <v>6</v>
@@ -3742,10 +3995,13 @@
       </c>
       <c r="K65" s="6">
         <f ca="1">K64</f>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.09</v>
+      </c>
+      <c r="L65" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -3766,7 +4022,7 @@
       </c>
       <c r="G66" s="3">
         <f t="shared" ref="G66:G76" ca="1" si="11">G65</f>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H66" s="3">
         <v>6</v>
@@ -3779,10 +4035,13 @@
       </c>
       <c r="K66" s="6">
         <f t="shared" ref="K66:K77" ca="1" si="12">K65</f>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.09</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -3803,7 +4062,7 @@
       </c>
       <c r="G67" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H67" s="3">
         <v>6</v>
@@ -3816,10 +4075,13 @@
       </c>
       <c r="K67" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.09</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -3840,7 +4102,7 @@
       </c>
       <c r="G68" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H68" s="3">
         <v>6</v>
@@ -3853,10 +4115,13 @@
       </c>
       <c r="K68" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.09</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -3877,7 +4142,7 @@
       </c>
       <c r="G69" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H69" s="3">
         <v>6</v>
@@ -3890,10 +4155,13 @@
       </c>
       <c r="K69" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.09</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -3914,7 +4182,7 @@
       </c>
       <c r="G70" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H70" s="3">
         <v>6</v>
@@ -3927,10 +4195,13 @@
       </c>
       <c r="K70" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.09</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -3951,7 +4222,7 @@
       </c>
       <c r="G71" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H71" s="3">
         <v>6</v>
@@ -3964,10 +4235,13 @@
       </c>
       <c r="K71" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.09</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -3988,7 +4262,7 @@
       </c>
       <c r="G72" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H72" s="3">
         <v>6</v>
@@ -4001,10 +4275,13 @@
       </c>
       <c r="K72" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.09</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -4025,7 +4302,7 @@
       </c>
       <c r="G73" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H73" s="3">
         <v>6</v>
@@ -4038,10 +4315,13 @@
       </c>
       <c r="K73" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.09</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -4062,7 +4342,7 @@
       </c>
       <c r="G74" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H74" s="3">
         <v>6</v>
@@ -4075,10 +4355,13 @@
       </c>
       <c r="K74" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.09</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -4099,7 +4382,7 @@
       </c>
       <c r="G75" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H75" s="3">
         <v>6</v>
@@ -4112,10 +4395,13 @@
       </c>
       <c r="K75" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.09</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -4136,7 +4422,7 @@
       </c>
       <c r="G76" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H76" s="3">
         <v>6</v>
@@ -4149,10 +4435,13 @@
       </c>
       <c r="K76" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.09</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -4173,7 +4462,7 @@
       </c>
       <c r="G77" s="3">
         <f ca="1">G76</f>
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H77" s="3">
         <v>6</v>
@@ -4186,10 +4475,13 @@
       </c>
       <c r="K77" s="6">
         <f t="shared" ca="1" si="12"/>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.09</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -4223,10 +4515,13 @@
       </c>
       <c r="K78" s="6">
         <f ca="1">ROUND(RAND()*10,2)</f>
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.32</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -4260,10 +4555,13 @@
       </c>
       <c r="K79" s="6">
         <f ca="1">K78</f>
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.32</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -4297,10 +4595,13 @@
       </c>
       <c r="K80" s="6">
         <f t="shared" ref="K80:K85" ca="1" si="14">K79</f>
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.32</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -4334,10 +4635,13 @@
       </c>
       <c r="K81" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.32</v>
+      </c>
+      <c r="L81" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -4371,10 +4675,13 @@
       </c>
       <c r="K82" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.32</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -4408,10 +4715,13 @@
       </c>
       <c r="K83" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.32</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -4445,10 +4755,13 @@
       </c>
       <c r="K84" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.32</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -4482,10 +4795,13 @@
       </c>
       <c r="K85" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.32</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -4506,7 +4822,7 @@
       </c>
       <c r="G86" s="3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H86" s="3">
         <v>8</v>
@@ -4519,10 +4835,13 @@
       </c>
       <c r="K86" s="6">
         <f ca="1">ROUND(RAND()*10,2)</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -4543,7 +4862,7 @@
       </c>
       <c r="G87" s="3">
         <f ca="1">G86</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H87" s="3">
         <v>8</v>
@@ -4556,10 +4875,13 @@
       </c>
       <c r="K87" s="6">
         <f ca="1">K86</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -4580,7 +4902,7 @@
       </c>
       <c r="G88" s="3">
         <f t="shared" ref="G88:G99" ca="1" si="15">G87</f>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H88" s="3">
         <v>8</v>
@@ -4593,10 +4915,13 @@
       </c>
       <c r="K88" s="6">
         <f t="shared" ref="K88:K111" ca="1" si="16">K87</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -4617,7 +4942,7 @@
       </c>
       <c r="G89" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H89" s="3">
         <v>8</v>
@@ -4630,10 +4955,13 @@
       </c>
       <c r="K89" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -4654,7 +4982,7 @@
       </c>
       <c r="G90" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H90" s="3">
         <v>8</v>
@@ -4667,10 +4995,13 @@
       </c>
       <c r="K90" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -4691,7 +5022,7 @@
       </c>
       <c r="G91" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H91" s="3">
         <v>8</v>
@@ -4704,10 +5035,13 @@
       </c>
       <c r="K91" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L91" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -4728,7 +5062,7 @@
       </c>
       <c r="G92" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H92" s="3">
         <v>8</v>
@@ -4741,10 +5075,13 @@
       </c>
       <c r="K92" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -4765,7 +5102,7 @@
       </c>
       <c r="G93" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H93" s="3">
         <v>8</v>
@@ -4778,10 +5115,13 @@
       </c>
       <c r="K93" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -4802,7 +5142,7 @@
       </c>
       <c r="G94" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H94" s="3">
         <v>8</v>
@@ -4815,10 +5155,13 @@
       </c>
       <c r="K94" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -4839,7 +5182,7 @@
       </c>
       <c r="G95" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H95" s="3">
         <v>8</v>
@@ -4852,10 +5195,13 @@
       </c>
       <c r="K95" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -4876,7 +5222,7 @@
       </c>
       <c r="G96" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H96" s="3">
         <v>8</v>
@@ -4889,10 +5235,13 @@
       </c>
       <c r="K96" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -4913,7 +5262,7 @@
       </c>
       <c r="G97" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H97" s="3">
         <v>8</v>
@@ -4926,10 +5275,13 @@
       </c>
       <c r="K97" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -4950,7 +5302,7 @@
       </c>
       <c r="G98" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H98" s="3">
         <v>8</v>
@@ -4963,10 +5315,13 @@
       </c>
       <c r="K98" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -4987,7 +5342,7 @@
       </c>
       <c r="G99" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H99" s="3">
         <v>8</v>
@@ -5000,10 +5355,13 @@
       </c>
       <c r="K99" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -5024,7 +5382,7 @@
       </c>
       <c r="G100" s="3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H100" s="3">
         <v>8</v>
@@ -5037,10 +5395,13 @@
       </c>
       <c r="K100" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L100" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -5061,7 +5422,7 @@
       </c>
       <c r="G101" s="3">
         <f ca="1">G100</f>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H101" s="3">
         <v>8</v>
@@ -5074,10 +5435,13 @@
       </c>
       <c r="K101" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L101" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -5098,7 +5462,7 @@
       </c>
       <c r="G102" s="3">
         <f t="shared" ref="G102:G111" ca="1" si="17">G101</f>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H102" s="3">
         <v>8</v>
@@ -5111,10 +5475,13 @@
       </c>
       <c r="K102" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L102" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -5135,7 +5502,7 @@
       </c>
       <c r="G103" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H103" s="3">
         <v>8</v>
@@ -5148,10 +5515,13 @@
       </c>
       <c r="K103" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L103" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -5172,7 +5542,7 @@
       </c>
       <c r="G104" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H104" s="3">
         <v>8</v>
@@ -5185,10 +5555,13 @@
       </c>
       <c r="K104" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L104" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -5209,7 +5582,7 @@
       </c>
       <c r="G105" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H105" s="3">
         <v>8</v>
@@ -5222,10 +5595,13 @@
       </c>
       <c r="K105" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L105" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -5246,7 +5622,7 @@
       </c>
       <c r="G106" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H106" s="3">
         <v>8</v>
@@ -5259,10 +5635,13 @@
       </c>
       <c r="K106" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L106" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -5283,7 +5662,7 @@
       </c>
       <c r="G107" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H107" s="3">
         <v>8</v>
@@ -5296,10 +5675,13 @@
       </c>
       <c r="K107" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L107" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -5320,7 +5702,7 @@
       </c>
       <c r="G108" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H108" s="3">
         <v>8</v>
@@ -5333,10 +5715,13 @@
       </c>
       <c r="K108" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L108" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -5357,7 +5742,7 @@
       </c>
       <c r="G109" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H109" s="3">
         <v>8</v>
@@ -5370,10 +5755,13 @@
       </c>
       <c r="K109" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L109" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -5394,7 +5782,7 @@
       </c>
       <c r="G110" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H110" s="3">
         <v>8</v>
@@ -5407,10 +5795,13 @@
       </c>
       <c r="K110" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L110" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -5431,7 +5822,7 @@
       </c>
       <c r="G111" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H111" s="3">
         <v>8</v>
@@ -5444,10 +5835,13 @@
       </c>
       <c r="K111" s="6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.71</v>
+      </c>
+      <c r="L111" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -5468,7 +5862,7 @@
       </c>
       <c r="G112" s="3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H112" s="3">
         <v>9</v>
@@ -5481,10 +5875,13 @@
       </c>
       <c r="K112" s="6">
         <f ca="1">ROUND(RAND()*10,2)</f>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -5505,7 +5902,7 @@
       </c>
       <c r="G113" s="3">
         <f ca="1">G112</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H113" s="3">
         <v>9</v>
@@ -5518,10 +5915,13 @@
       </c>
       <c r="K113" s="6">
         <f ca="1">K112</f>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -5542,7 +5942,7 @@
       </c>
       <c r="G114" s="3">
         <f t="shared" ref="G114:G122" ca="1" si="18">G113</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H114" s="3">
         <v>9</v>
@@ -5555,10 +5955,13 @@
       </c>
       <c r="K114" s="6">
         <f t="shared" ref="K114:K123" ca="1" si="19">K113</f>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -5579,7 +5982,7 @@
       </c>
       <c r="G115" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H115" s="3">
         <v>9</v>
@@ -5592,10 +5995,13 @@
       </c>
       <c r="K115" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="L115" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -5616,7 +6022,7 @@
       </c>
       <c r="G116" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H116" s="3">
         <v>9</v>
@@ -5629,10 +6035,13 @@
       </c>
       <c r="K116" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -5653,7 +6062,7 @@
       </c>
       <c r="G117" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H117" s="3">
         <v>9</v>
@@ -5666,10 +6075,13 @@
       </c>
       <c r="K117" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -5690,7 +6102,7 @@
       </c>
       <c r="G118" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H118" s="3">
         <v>9</v>
@@ -5703,10 +6115,13 @@
       </c>
       <c r="K118" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -5727,7 +6142,7 @@
       </c>
       <c r="G119" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H119" s="3">
         <v>9</v>
@@ -5740,10 +6155,13 @@
       </c>
       <c r="K119" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="L119" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -5764,7 +6182,7 @@
       </c>
       <c r="G120" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H120" s="3">
         <v>9</v>
@@ -5777,10 +6195,13 @@
       </c>
       <c r="K120" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="L120" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -5801,7 +6222,7 @@
       </c>
       <c r="G121" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H121" s="3">
         <v>9</v>
@@ -5814,10 +6235,13 @@
       </c>
       <c r="K121" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -5838,7 +6262,7 @@
       </c>
       <c r="G122" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H122" s="3">
         <v>9</v>
@@ -5851,10 +6275,13 @@
       </c>
       <c r="K122" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -5875,7 +6302,7 @@
       </c>
       <c r="G123" s="3">
         <f ca="1">G122</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H123" s="3">
         <v>9</v>
@@ -5888,10 +6315,13 @@
       </c>
       <c r="K123" s="6">
         <f t="shared" ca="1" si="19"/>
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -5912,7 +6342,7 @@
       </c>
       <c r="G124" s="3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H124" s="3">
         <v>10</v>
@@ -5925,10 +6355,13 @@
       </c>
       <c r="K124" s="6">
         <f ca="1">ROUND(RAND()*10,2)</f>
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L124" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -5949,7 +6382,7 @@
       </c>
       <c r="G125" s="3">
         <f ca="1">G124</f>
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H125" s="3">
         <v>10</v>
@@ -5962,10 +6395,13 @@
       </c>
       <c r="K125" s="6">
         <f ca="1">K124</f>
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L125" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -5986,7 +6422,7 @@
       </c>
       <c r="G126" s="3">
         <f t="shared" ref="G126:G131" ca="1" si="20">G125</f>
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H126" s="3">
         <v>10</v>
@@ -5999,10 +6435,13 @@
       </c>
       <c r="K126" s="6">
         <f t="shared" ref="K126:K131" ca="1" si="21">K125</f>
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L126" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -6023,7 +6462,7 @@
       </c>
       <c r="G127" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H127" s="3">
         <v>10</v>
@@ -6036,10 +6475,13 @@
       </c>
       <c r="K127" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L127" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -6060,7 +6502,7 @@
       </c>
       <c r="G128" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H128" s="3">
         <v>10</v>
@@ -6073,10 +6515,13 @@
       </c>
       <c r="K128" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L128" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -6097,7 +6542,7 @@
       </c>
       <c r="G129" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H129" s="3">
         <v>10</v>
@@ -6110,10 +6555,13 @@
       </c>
       <c r="K129" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L129" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -6134,7 +6582,7 @@
       </c>
       <c r="G130" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H130" s="3">
         <v>10</v>
@@ -6147,10 +6595,13 @@
       </c>
       <c r="K130" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L130" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -6171,7 +6622,7 @@
       </c>
       <c r="G131" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="H131" s="3">
         <v>10</v>
@@ -6184,10 +6635,13 @@
       </c>
       <c r="K131" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>5.19</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L131" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -6208,7 +6662,7 @@
       </c>
       <c r="G132" s="3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H132" s="3">
         <v>11</v>
@@ -6221,10 +6675,13 @@
       </c>
       <c r="K132" s="6">
         <f ca="1">ROUND(RAND()*10,2)</f>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L132" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -6245,7 +6702,7 @@
       </c>
       <c r="G133" s="3">
         <f ca="1">G132</f>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H133" s="3">
         <v>11</v>
@@ -6258,10 +6715,13 @@
       </c>
       <c r="K133" s="6">
         <f ca="1">K132</f>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -6282,7 +6742,7 @@
       </c>
       <c r="G134" s="3">
         <f t="shared" ref="G134:G144" ca="1" si="22">G133</f>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H134" s="3">
         <v>11</v>
@@ -6295,10 +6755,13 @@
       </c>
       <c r="K134" s="6">
         <f t="shared" ref="K134:K149" ca="1" si="23">K133</f>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -6319,7 +6782,7 @@
       </c>
       <c r="G135" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H135" s="3">
         <v>11</v>
@@ -6332,10 +6795,13 @@
       </c>
       <c r="K135" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L135" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -6356,7 +6822,7 @@
       </c>
       <c r="G136" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H136" s="3">
         <v>11</v>
@@ -6369,10 +6835,13 @@
       </c>
       <c r="K136" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L136" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -6393,7 +6862,7 @@
       </c>
       <c r="G137" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H137" s="3">
         <v>11</v>
@@ -6406,10 +6875,13 @@
       </c>
       <c r="K137" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L137" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -6430,7 +6902,7 @@
       </c>
       <c r="G138" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H138" s="3">
         <v>11</v>
@@ -6443,10 +6915,13 @@
       </c>
       <c r="K138" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L138" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -6467,7 +6942,7 @@
       </c>
       <c r="G139" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H139" s="3">
         <v>11</v>
@@ -6480,10 +6955,13 @@
       </c>
       <c r="K139" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -6504,7 +6982,7 @@
       </c>
       <c r="G140" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H140" s="3">
         <v>11</v>
@@ -6517,10 +6995,13 @@
       </c>
       <c r="K140" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L140" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -6541,7 +7022,7 @@
       </c>
       <c r="G141" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H141" s="3">
         <v>11</v>
@@ -6554,10 +7035,13 @@
       </c>
       <c r="K141" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -6578,7 +7062,7 @@
       </c>
       <c r="G142" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H142" s="3">
         <v>11</v>
@@ -6591,10 +7075,13 @@
       </c>
       <c r="K142" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -6615,7 +7102,7 @@
       </c>
       <c r="G143" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H143" s="3">
         <v>11</v>
@@ -6628,10 +7115,13 @@
       </c>
       <c r="K143" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -6652,7 +7142,7 @@
       </c>
       <c r="G144" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H144" s="3">
         <v>11</v>
@@ -6665,10 +7155,13 @@
       </c>
       <c r="K144" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -6689,7 +7182,7 @@
       </c>
       <c r="G145" s="3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H145" s="3">
         <v>11</v>
@@ -6702,10 +7195,13 @@
       </c>
       <c r="K145" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L145" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -6726,7 +7222,7 @@
       </c>
       <c r="G146" s="3">
         <f ca="1">G145</f>
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H146" s="3">
         <v>11</v>
@@ -6739,10 +7235,13 @@
       </c>
       <c r="K146" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L146" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -6763,7 +7262,7 @@
       </c>
       <c r="G147" s="3">
         <f t="shared" ref="G147:G149" ca="1" si="24">G146</f>
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H147" s="3">
         <v>11</v>
@@ -6776,10 +7275,13 @@
       </c>
       <c r="K147" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L147" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -6800,7 +7302,7 @@
       </c>
       <c r="G148" s="3">
         <f t="shared" ca="1" si="24"/>
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H148" s="3">
         <v>11</v>
@@ -6813,10 +7315,13 @@
       </c>
       <c r="K148" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L148" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -6837,7 +7342,7 @@
       </c>
       <c r="G149" s="3">
         <f t="shared" ca="1" si="24"/>
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H149" s="3">
         <v>11</v>
@@ -6850,10 +7355,13 @@
       </c>
       <c r="K149" s="6">
         <f t="shared" ca="1" si="23"/>
-        <v>4.38</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+      <c r="L149" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -6874,7 +7382,7 @@
       </c>
       <c r="G150" s="3">
         <f ca="1">RANDBETWEEN(1,50)</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H150" s="3">
         <v>12</v>
@@ -6887,10 +7395,13 @@
       </c>
       <c r="K150" s="6">
         <f ca="1">ROUND(RAND()*10,2)</f>
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.89</v>
+      </c>
+      <c r="L150" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -6911,7 +7422,7 @@
       </c>
       <c r="G151" s="3">
         <f ca="1">G150</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H151" s="3">
         <v>12</v>
@@ -6924,10 +7435,13 @@
       </c>
       <c r="K151" s="6">
         <f ca="1">K150</f>
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.89</v>
+      </c>
+      <c r="L151" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -6947,8 +7461,8 @@
         <v>189</v>
       </c>
       <c r="G152" s="3">
-        <f t="shared" ref="G152:G158" ca="1" si="25">RANDBETWEEN(1,50)</f>
-        <v>33</v>
+        <f t="shared" ref="G152:G159" ca="1" si="25">RANDBETWEEN(1,50)</f>
+        <v>1</v>
       </c>
       <c r="H152" s="10">
         <v>90</v>
@@ -6961,10 +7475,13 @@
       </c>
       <c r="K152" s="6">
         <f ca="1">ROUND(RAND()*10,2)</f>
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.2</v>
+      </c>
+      <c r="L152" s="28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>152</v>
       </c>
@@ -6985,7 +7502,7 @@
       </c>
       <c r="G153" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H153" s="10">
         <v>90</v>
@@ -6998,10 +7515,13 @@
       </c>
       <c r="K153" s="6">
         <f ca="1">K152</f>
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.2</v>
+      </c>
+      <c r="L153" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -7022,7 +7542,7 @@
       </c>
       <c r="G154" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H154" s="10">
         <v>90</v>
@@ -7035,10 +7555,13 @@
       </c>
       <c r="K154" s="6">
         <f t="shared" ref="K154:K156" ca="1" si="26">K153</f>
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.2</v>
+      </c>
+      <c r="L154" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -7059,7 +7582,7 @@
       </c>
       <c r="G155" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H155" s="10">
         <v>90</v>
@@ -7072,10 +7595,13 @@
       </c>
       <c r="K155" s="6">
         <f t="shared" ca="1" si="26"/>
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.2</v>
+      </c>
+      <c r="L155" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -7096,7 +7622,7 @@
       </c>
       <c r="G156" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H156" s="10">
         <v>90</v>
@@ -7109,10 +7635,13 @@
       </c>
       <c r="K156" s="6">
         <f t="shared" ca="1" si="26"/>
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.2</v>
+      </c>
+      <c r="L156" s="28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>156</v>
       </c>
@@ -7133,7 +7662,7 @@
       </c>
       <c r="G157" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H157" s="10">
         <v>19</v>
@@ -7146,10 +7675,13 @@
       </c>
       <c r="K157" s="6">
         <f ca="1">ROUND(RAND()*10,2)</f>
-        <v>9.4700000000000006</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6.89</v>
+      </c>
+      <c r="L157" s="28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>157</v>
       </c>
@@ -7170,7 +7702,7 @@
       </c>
       <c r="G158" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H158" s="10">
         <v>19</v>
@@ -7183,7 +7715,50 @@
       </c>
       <c r="K158" s="6">
         <f ca="1">K157</f>
-        <v>9.4700000000000006</v>
+        <v>6.89</v>
+      </c>
+      <c r="L158" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" s="6">
+        <v>158</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C159" s="10">
+        <v>234</v>
+      </c>
+      <c r="D159" s="10">
+        <v>8</v>
+      </c>
+      <c r="E159" s="10">
+        <v>282174</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G159" s="3">
+        <f t="shared" ca="1" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="H159" s="10">
+        <v>19</v>
+      </c>
+      <c r="I159" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="J159" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="K159" s="6">
+        <f ca="1">K158</f>
+        <v>6.89</v>
+      </c>
+      <c r="L159" s="28" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -9001,7 +9576,7 @@
       </c>
       <c r="E2" s="9">
         <f ca="1">RANDBETWEEN(1, 50)</f>
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9019,7 +9594,7 @@
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E24" ca="1" si="0">RANDBETWEEN(1, 50)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9037,7 +9612,7 @@
       </c>
       <c r="E4" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9055,7 +9630,7 @@
       </c>
       <c r="E5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9073,7 +9648,7 @@
       </c>
       <c r="E6" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9091,7 +9666,7 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9109,7 +9684,7 @@
       </c>
       <c r="E8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9127,7 +9702,7 @@
       </c>
       <c r="E9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9145,7 +9720,7 @@
       </c>
       <c r="E10" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9163,7 +9738,7 @@
       </c>
       <c r="E11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9181,7 +9756,7 @@
       </c>
       <c r="E12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9199,7 +9774,7 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9217,7 +9792,7 @@
       </c>
       <c r="E14" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9235,7 +9810,7 @@
       </c>
       <c r="E15" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9253,7 +9828,7 @@
       </c>
       <c r="E16" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9271,7 +9846,7 @@
       </c>
       <c r="E17" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9289,7 +9864,7 @@
       </c>
       <c r="E18" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9307,7 +9882,7 @@
       </c>
       <c r="E19" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9325,7 +9900,7 @@
       </c>
       <c r="E20" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9343,7 +9918,7 @@
       </c>
       <c r="E21" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9361,7 +9936,7 @@
       </c>
       <c r="E22" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9379,7 +9954,7 @@
       </c>
       <c r="E23" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -9397,7 +9972,7 @@
       </c>
       <c r="E24" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -9445,7 +10020,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">ROUND(RAND()*9+1,1)</f>
-        <v>4.4000000000000004</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -9457,7 +10032,7 @@
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" ca="1" si="0">ROUND(RAND()*9+1,1)</f>
-        <v>8.1</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -9469,7 +10044,7 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -9481,7 +10056,7 @@
       </c>
       <c r="C5" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -9493,7 +10068,7 @@
       </c>
       <c r="C6" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -9505,7 +10080,7 @@
       </c>
       <c r="C7" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -9517,7 +10092,7 @@
       </c>
       <c r="C8" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -9529,7 +10104,7 @@
       </c>
       <c r="C9" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -9541,7 +10116,7 @@
       </c>
       <c r="C10" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -9553,7 +10128,7 @@
       </c>
       <c r="C11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -9565,7 +10140,7 @@
       </c>
       <c r="C12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -9577,7 +10152,7 @@
       </c>
       <c r="C13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -9589,7 +10164,7 @@
       </c>
       <c r="C14" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -9601,7 +10176,7 @@
       </c>
       <c r="C15" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>6.1</v>
       </c>
     </row>
   </sheetData>
